--- a/investigaciones/teoria mediaombiental de bronfenbrenner y machine learning/estudiantes.xlsx
+++ b/investigaciones/teoria mediaombiental de bronfenbrenner y machine learning/estudiantes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danko\Dropbox\00 Doctorado\Paper\Teoria mediaombiental de Bronfenbenner y Machine Learning\estudio\Nueva carpeta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danko\Dropbox\00 Programacion\00_portafolio\investigaciones\teoria mediaombiental de bronfenbrenner y machine learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F4E3B0-8D9E-44FD-B2D3-56D2DEDF38A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ACFDD9-5C6F-499B-92C4-CD48F4D55FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,21 +16,11 @@
     <sheet name="passengers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4608" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4610" uniqueCount="197">
   <si>
     <t>genero</t>
   </si>
@@ -616,6 +606,12 @@
   <si>
     <t>vive_con_madre</t>
   </si>
+  <si>
+    <t>asignaturas_reprobadas</t>
+  </si>
+  <si>
+    <t>repitencia_pasada</t>
+  </si>
 </sst>
 </file>
 
@@ -679,28 +675,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1034,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DL175"/>
+  <dimension ref="A1:DN175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="DL48" sqref="DC1:DL1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,9 +1026,10 @@
     <col min="24" max="24" width="19" style="5" customWidth="1"/>
     <col min="25" max="106" width="9.140625" customWidth="1"/>
     <col min="107" max="116" width="3.7109375" customWidth="1"/>
+    <col min="117" max="117" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +1121,7 @@
         <v>25</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>27</v>
@@ -1402,8 +1378,14 @@
       <c r="DL1" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="DM1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -1749,8 +1731,16 @@
       <c r="DL2" s="2">
         <v>4.7</v>
       </c>
+      <c r="DM2">
+        <f>COUNTIF(DC2:DK2,"&lt;4")</f>
+        <v>2</v>
+      </c>
+      <c r="DN2">
+        <f xml:space="preserve"> IF(OR(AND(DM2=0,DL2&lt;4),AND(DM2=1,DL2&lt;4.5),AND(DM2=2,DL2&lt;5),DM2&gt;=3),1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -2096,8 +2086,16 @@
       <c r="DL3" s="2">
         <v>6.7</v>
       </c>
+      <c r="DM3">
+        <f t="shared" ref="DM3:DM66" si="0">COUNTIF(DC3:DK3,"&lt;4")</f>
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <f t="shared" ref="DN3:DN66" si="1" xml:space="preserve"> IF(OR(AND(DM3=0,DL3&lt;4),AND(DM3=1,DL3&lt;4.5),AND(DM3=2,DL3&lt;5),DM3&gt;=3),1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2443,8 +2441,16 @@
       <c r="DL4" s="2">
         <v>4.9000000000000004</v>
       </c>
+      <c r="DM4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="DN4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -2790,8 +2796,16 @@
       <c r="DL5" s="2">
         <v>6</v>
       </c>
+      <c r="DM5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -3137,8 +3151,16 @@
       <c r="DL6" s="2">
         <v>6</v>
       </c>
+      <c r="DM6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -3484,8 +3506,16 @@
       <c r="DL7" s="2">
         <v>5.9</v>
       </c>
+      <c r="DM7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -3831,8 +3861,16 @@
       <c r="DL8" s="2">
         <v>5.9</v>
       </c>
+      <c r="DM8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -4178,8 +4216,16 @@
       <c r="DL9" s="2">
         <v>5.4</v>
       </c>
+      <c r="DM9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DN9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -4525,8 +4571,16 @@
       <c r="DL10" s="2">
         <v>6.2</v>
       </c>
+      <c r="DM10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -4872,8 +4926,16 @@
       <c r="DL11" s="2">
         <v>5.6</v>
       </c>
+      <c r="DM11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -5219,8 +5281,16 @@
       <c r="DL12" s="2">
         <v>5.2</v>
       </c>
+      <c r="DM12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="DN12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -5566,8 +5636,16 @@
       <c r="DL13" s="2">
         <v>6.2</v>
       </c>
+      <c r="DM13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -5913,8 +5991,16 @@
       <c r="DL14" s="2">
         <v>6.4</v>
       </c>
+      <c r="DM14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -6260,8 +6346,16 @@
       <c r="DL15" s="2">
         <v>5.6</v>
       </c>
+      <c r="DM15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -6607,8 +6701,16 @@
       <c r="DL16" s="2">
         <v>5.0999999999999996</v>
       </c>
+      <c r="DM16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DN16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -6954,8 +7056,16 @@
       <c r="DL17" s="2">
         <v>4.2</v>
       </c>
+      <c r="DM17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="DN17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -7301,8 +7411,16 @@
       <c r="DL18" s="2">
         <v>6.9</v>
       </c>
+      <c r="DM18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -7648,8 +7766,16 @@
       <c r="DL19" s="2">
         <v>4.5999999999999996</v>
       </c>
+      <c r="DM19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="DN19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -7995,8 +8121,16 @@
       <c r="DL20" s="2">
         <v>6.1</v>
       </c>
+      <c r="DM20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -8342,8 +8476,16 @@
       <c r="DL21" s="2">
         <v>5</v>
       </c>
+      <c r="DM21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="DN21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -8689,8 +8831,16 @@
       <c r="DL22" s="2">
         <v>6.1</v>
       </c>
+      <c r="DM22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -9036,8 +9186,16 @@
       <c r="DL23" s="2">
         <v>5.5</v>
       </c>
+      <c r="DM23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -9383,8 +9541,16 @@
       <c r="DL24" s="2">
         <v>6.3</v>
       </c>
+      <c r="DM24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -9730,8 +9896,16 @@
       <c r="DL25" s="2">
         <v>6.5</v>
       </c>
+      <c r="DM25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -10077,8 +10251,16 @@
       <c r="DL26" s="2">
         <v>6.2</v>
       </c>
+      <c r="DM26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -10424,8 +10606,16 @@
       <c r="DL27" s="2">
         <v>6.4</v>
       </c>
+      <c r="DM27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -10771,8 +10961,16 @@
       <c r="DL28" s="2">
         <v>4.7</v>
       </c>
+      <c r="DM28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="DN28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -11118,8 +11316,16 @@
       <c r="DL29" s="2">
         <v>6.7</v>
       </c>
+      <c r="DM29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -11465,8 +11671,16 @@
       <c r="DL30" s="2">
         <v>5.8</v>
       </c>
+      <c r="DM30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -11812,8 +12026,16 @@
       <c r="DL31" s="2">
         <v>5.6</v>
       </c>
+      <c r="DM31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -12159,8 +12381,16 @@
       <c r="DL32" s="2">
         <v>4.4000000000000004</v>
       </c>
+      <c r="DM32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="DN32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -12506,8 +12736,16 @@
       <c r="DL33" s="2">
         <v>4.5999999999999996</v>
       </c>
+      <c r="DM33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="DN33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -12853,8 +13091,16 @@
       <c r="DL34" s="2">
         <v>4.8</v>
       </c>
+      <c r="DM34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="DN34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -13200,8 +13446,16 @@
       <c r="DL35" s="2">
         <v>3.7</v>
       </c>
+      <c r="DM35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="DN35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -13547,8 +13801,16 @@
       <c r="DL36" s="2">
         <v>5.6</v>
       </c>
+      <c r="DM36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -13894,8 +14156,16 @@
       <c r="DL37" s="2">
         <v>6.3</v>
       </c>
+      <c r="DM37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -14241,8 +14511,16 @@
       <c r="DL38" s="2">
         <v>5.9</v>
       </c>
+      <c r="DM38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -14588,8 +14866,16 @@
       <c r="DL39" s="2">
         <v>5.7</v>
       </c>
+      <c r="DM39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -14935,8 +15221,16 @@
       <c r="DL40" s="2">
         <v>5.5</v>
       </c>
+      <c r="DM40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -15282,8 +15576,16 @@
       <c r="DL41" s="2">
         <v>5.6</v>
       </c>
+      <c r="DM41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -15629,8 +15931,16 @@
       <c r="DL42" s="2">
         <v>5</v>
       </c>
+      <c r="DM42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DN42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -15976,8 +16286,16 @@
       <c r="DL43" s="2">
         <v>6</v>
       </c>
+      <c r="DM43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -16323,8 +16641,16 @@
       <c r="DL44" s="2">
         <v>5.9</v>
       </c>
+      <c r="DM44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -16670,8 +16996,16 @@
       <c r="DL45" s="2">
         <v>5.6</v>
       </c>
+      <c r="DM45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -17017,8 +17351,16 @@
       <c r="DL46" s="2">
         <v>5</v>
       </c>
+      <c r="DM46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DN46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -17364,8 +17706,16 @@
       <c r="DL47" s="2">
         <v>4.7</v>
       </c>
+      <c r="DM47">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="DN47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -17711,8 +18061,16 @@
       <c r="DL48" s="2">
         <v>5.7</v>
       </c>
+      <c r="DM48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DN48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -18058,8 +18416,16 @@
       <c r="DL49" s="2">
         <v>4.9000000000000004</v>
       </c>
+      <c r="DM49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DN49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -18405,8 +18771,16 @@
       <c r="DL50" s="2">
         <v>3.8</v>
       </c>
+      <c r="DM50">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="DN50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -18752,8 +19126,16 @@
       <c r="DL51" s="2">
         <v>4.5999999999999996</v>
       </c>
+      <c r="DM51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="DN51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -19099,8 +19481,16 @@
       <c r="DL52" s="2">
         <v>5.3</v>
       </c>
+      <c r="DM52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -19446,8 +19836,16 @@
       <c r="DL53" s="2">
         <v>5.8</v>
       </c>
+      <c r="DM53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -19793,8 +20191,16 @@
       <c r="DL54" s="2">
         <v>5.8</v>
       </c>
+      <c r="DM54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -20140,8 +20546,16 @@
       <c r="DL55" s="2">
         <v>6.3</v>
       </c>
+      <c r="DM55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -20487,8 +20901,16 @@
       <c r="DL56" s="2">
         <v>5.6</v>
       </c>
+      <c r="DM56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -20834,8 +21256,16 @@
       <c r="DL57" s="2">
         <v>5.4</v>
       </c>
+      <c r="DM57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -21181,8 +21611,16 @@
       <c r="DL58" s="2">
         <v>6.2</v>
       </c>
+      <c r="DM58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -21528,8 +21966,16 @@
       <c r="DL59" s="2">
         <v>5.7</v>
       </c>
+      <c r="DM59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -21875,8 +22321,16 @@
       <c r="DL60" s="2">
         <v>5.2</v>
       </c>
+      <c r="DM60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DN60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -22222,8 +22676,16 @@
       <c r="DL61" s="2">
         <v>5.5</v>
       </c>
+      <c r="DM61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -22569,8 +23031,16 @@
       <c r="DL62" s="2">
         <v>6.2</v>
       </c>
+      <c r="DM62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -22916,8 +23386,16 @@
       <c r="DL63" s="2">
         <v>5.6</v>
       </c>
+      <c r="DM63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>102</v>
       </c>
@@ -23263,8 +23741,16 @@
       <c r="DL64" s="2">
         <v>6.7</v>
       </c>
+      <c r="DM64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -23610,8 +24096,16 @@
       <c r="DL65" s="2">
         <v>6.2</v>
       </c>
+      <c r="DM65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -23957,8 +24451,16 @@
       <c r="DL66" s="2">
         <v>5.9</v>
       </c>
+      <c r="DM66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DN66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -24304,8 +24806,16 @@
       <c r="DL67" s="2">
         <v>5.0999999999999996</v>
       </c>
+      <c r="DM67">
+        <f t="shared" ref="DM67:DM130" si="2">COUNTIF(DC67:DK67,"&lt;4")</f>
+        <v>2</v>
+      </c>
+      <c r="DN67">
+        <f t="shared" ref="DN67:DN130" si="3" xml:space="preserve"> IF(OR(AND(DM67=0,DL67&lt;4),AND(DM67=1,DL67&lt;4.5),AND(DM67=2,DL67&lt;5),DM67&gt;=3),1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -24651,8 +25161,16 @@
       <c r="DL68" s="2">
         <v>6.2</v>
       </c>
+      <c r="DM68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -24998,8 +25516,16 @@
       <c r="DL69" s="2">
         <v>4.5999999999999996</v>
       </c>
+      <c r="DM69">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="DN69">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="70" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -25345,8 +25871,16 @@
       <c r="DL70" s="2">
         <v>6.2</v>
       </c>
+      <c r="DM70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -25692,8 +26226,16 @@
       <c r="DL71" s="2">
         <v>5.7</v>
       </c>
+      <c r="DM71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -26039,8 +26581,16 @@
       <c r="DL72" s="2">
         <v>6.1</v>
       </c>
+      <c r="DM72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>102</v>
       </c>
@@ -26386,8 +26936,16 @@
       <c r="DL73" s="2">
         <v>5.5</v>
       </c>
+      <c r="DM73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -26733,8 +27291,16 @@
       <c r="DL74" s="2">
         <v>6.1</v>
       </c>
+      <c r="DM74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>102</v>
       </c>
@@ -27080,8 +27646,16 @@
       <c r="DL75" s="2">
         <v>6.7</v>
       </c>
+      <c r="DM75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -27427,8 +28001,16 @@
       <c r="DL76" s="2">
         <v>6.6</v>
       </c>
+      <c r="DM76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>102</v>
       </c>
@@ -27774,8 +28356,16 @@
       <c r="DL77" s="2">
         <v>6.7</v>
       </c>
+      <c r="DM77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -28121,8 +28711,16 @@
       <c r="DL78" s="2">
         <v>6.2</v>
       </c>
+      <c r="DM78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>102</v>
       </c>
@@ -28468,8 +29066,16 @@
       <c r="DL79" s="2">
         <v>6</v>
       </c>
+      <c r="DM79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>105</v>
       </c>
@@ -28815,8 +29421,16 @@
       <c r="DL80" s="2">
         <v>6.1</v>
       </c>
+      <c r="DM80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -29162,8 +29776,16 @@
       <c r="DL81" s="2">
         <v>6.3</v>
       </c>
+      <c r="DM81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -29509,8 +30131,16 @@
       <c r="DL82" s="2">
         <v>5.5</v>
       </c>
+      <c r="DM82">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="DN82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -29856,8 +30486,16 @@
       <c r="DL83" s="2">
         <v>6.2</v>
       </c>
+      <c r="DM83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -30203,8 +30841,16 @@
       <c r="DL84" s="2">
         <v>5.7</v>
       </c>
+      <c r="DM84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -30550,8 +31196,16 @@
       <c r="DL85" s="2">
         <v>5.5</v>
       </c>
+      <c r="DM85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -30897,8 +31551,16 @@
       <c r="DL86" s="2">
         <v>6.6</v>
       </c>
+      <c r="DM86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -31244,8 +31906,16 @@
       <c r="DL87" s="2">
         <v>5.8</v>
       </c>
+      <c r="DM87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -31591,8 +32261,16 @@
       <c r="DL88" s="2">
         <v>5.8</v>
       </c>
+      <c r="DM88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -31938,8 +32616,16 @@
       <c r="DL89" s="2">
         <v>6.1</v>
       </c>
+      <c r="DM89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -32285,8 +32971,16 @@
       <c r="DL90" s="2">
         <v>6.7</v>
       </c>
+      <c r="DM90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -32632,8 +33326,16 @@
       <c r="DL91" s="2">
         <v>5.0999999999999996</v>
       </c>
+      <c r="DM91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -32979,8 +33681,16 @@
       <c r="DL92" s="2">
         <v>5.8</v>
       </c>
+      <c r="DM92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -33326,8 +34036,16 @@
       <c r="DL93" s="2">
         <v>5.6</v>
       </c>
+      <c r="DM93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>102</v>
       </c>
@@ -33673,8 +34391,16 @@
       <c r="DL94" s="2">
         <v>6.6</v>
       </c>
+      <c r="DM94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>102</v>
       </c>
@@ -34020,8 +34746,16 @@
       <c r="DL95" s="2">
         <v>5.9</v>
       </c>
+      <c r="DM95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>103</v>
       </c>
@@ -34367,8 +35101,16 @@
       <c r="DL96" s="2">
         <v>5.6</v>
       </c>
+      <c r="DM96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -34714,8 +35456,16 @@
       <c r="DL97" s="2">
         <v>5.8</v>
       </c>
+      <c r="DM97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>106</v>
       </c>
@@ -35061,8 +35811,16 @@
       <c r="DL98" s="2">
         <v>5.5</v>
       </c>
+      <c r="DM98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -35408,8 +36166,16 @@
       <c r="DL99" s="2">
         <v>4.8</v>
       </c>
+      <c r="DM99">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="DN99">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="100" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -35755,8 +36521,16 @@
       <c r="DL100" s="2">
         <v>6.3</v>
       </c>
+      <c r="DM100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -36102,8 +36876,16 @@
       <c r="DL101" s="2">
         <v>4.7</v>
       </c>
+      <c r="DM101">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="DN101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -36449,8 +37231,16 @@
       <c r="DL102" s="2">
         <v>5</v>
       </c>
+      <c r="DM102">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="DN102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -36796,8 +37586,16 @@
       <c r="DL103" s="2">
         <v>4.7</v>
       </c>
+      <c r="DM103">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="DN103">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="104" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -37143,8 +37941,16 @@
       <c r="DL104" s="2">
         <v>5.6</v>
       </c>
+      <c r="DM104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -37490,8 +38296,16 @@
       <c r="DL105" s="2">
         <v>6.7</v>
       </c>
+      <c r="DM105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -37837,8 +38651,16 @@
       <c r="DL106" s="2">
         <v>5.4</v>
       </c>
+      <c r="DM106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -37846,7 +38668,7 @@
         <v>14</v>
       </c>
       <c r="C107">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D107">
         <v>1.7</v>
@@ -38184,8 +39006,16 @@
       <c r="DL107" s="2">
         <v>4.9000000000000004</v>
       </c>
+      <c r="DM107">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="DN107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>102</v>
       </c>
@@ -38531,8 +39361,16 @@
       <c r="DL108" s="2">
         <v>5</v>
       </c>
+      <c r="DM108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>102</v>
       </c>
@@ -38878,8 +39716,16 @@
       <c r="DL109" s="2">
         <v>5.5</v>
       </c>
+      <c r="DM109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -39225,8 +40071,16 @@
       <c r="DL110" s="2">
         <v>6.3</v>
       </c>
+      <c r="DM110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>105</v>
       </c>
@@ -39572,8 +40426,16 @@
       <c r="DL111" s="2">
         <v>6.1</v>
       </c>
+      <c r="DM111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>106</v>
       </c>
@@ -39919,8 +40781,16 @@
       <c r="DL112" s="2">
         <v>5.2</v>
       </c>
+      <c r="DM112">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="DN112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -40266,8 +41136,16 @@
       <c r="DL113" s="2">
         <v>4.5999999999999996</v>
       </c>
+      <c r="DM113">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="DN113">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="114" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>103</v>
       </c>
@@ -40613,8 +41491,16 @@
       <c r="DL114" s="2">
         <v>6.8</v>
       </c>
+      <c r="DM114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>102</v>
       </c>
@@ -40960,8 +41846,16 @@
       <c r="DL115" s="2">
         <v>5.3</v>
       </c>
+      <c r="DM115">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="DN115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>103</v>
       </c>
@@ -41307,8 +42201,16 @@
       <c r="DL116" s="2">
         <v>6.7</v>
       </c>
+      <c r="DM116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>105</v>
       </c>
@@ -41654,8 +42556,16 @@
       <c r="DL117" s="2">
         <v>4.9000000000000004</v>
       </c>
+      <c r="DM117">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="DN117">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="118" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>103</v>
       </c>
@@ -42001,8 +42911,16 @@
       <c r="DL118" s="2">
         <v>5.3</v>
       </c>
+      <c r="DM118">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="DN118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>105</v>
       </c>
@@ -42348,8 +43266,16 @@
       <c r="DL119" s="2">
         <v>6.1</v>
       </c>
+      <c r="DM119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>103</v>
       </c>
@@ -42695,8 +43621,16 @@
       <c r="DL120" s="2">
         <v>6.7</v>
       </c>
+      <c r="DM120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN120">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>103</v>
       </c>
@@ -43042,8 +43976,16 @@
       <c r="DL121" s="2">
         <v>4.8</v>
       </c>
+      <c r="DM121">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="DN121">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="122" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>103</v>
       </c>
@@ -43389,8 +44331,16 @@
       <c r="DL122" s="2">
         <v>4.8</v>
       </c>
+      <c r="DM122">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="DN122">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="123" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>102</v>
       </c>
@@ -43736,8 +44686,16 @@
       <c r="DL123" s="2">
         <v>6.9</v>
       </c>
+      <c r="DM123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>102</v>
       </c>
@@ -44083,8 +45041,16 @@
       <c r="DL124" s="2">
         <v>4.9000000000000004</v>
       </c>
+      <c r="DM124">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="DN124">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>103</v>
       </c>
@@ -44430,8 +45396,16 @@
       <c r="DL125" s="2">
         <v>6.1</v>
       </c>
+      <c r="DM125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>103</v>
       </c>
@@ -44777,8 +45751,16 @@
       <c r="DL126" s="2">
         <v>6.8</v>
       </c>
+      <c r="DM126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>102</v>
       </c>
@@ -45124,8 +46106,16 @@
       <c r="DL127" s="2">
         <v>5.4</v>
       </c>
+      <c r="DM127">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="DN127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>102</v>
       </c>
@@ -45471,8 +46461,16 @@
       <c r="DL128" s="2">
         <v>5.7</v>
       </c>
+      <c r="DM128">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="DN128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>103</v>
       </c>
@@ -45818,8 +46816,16 @@
       <c r="DL129" s="2">
         <v>4.9000000000000004</v>
       </c>
+      <c r="DM129">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="DN129">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="130" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>103</v>
       </c>
@@ -46165,8 +47171,16 @@
       <c r="DL130" s="2">
         <v>5.5</v>
       </c>
+      <c r="DM130">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN130">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>102</v>
       </c>
@@ -46512,8 +47526,16 @@
       <c r="DL131" s="2">
         <v>5.6</v>
       </c>
+      <c r="DM131">
+        <f t="shared" ref="DM131:DM175" si="4">COUNTIF(DC131:DK131,"&lt;4")</f>
+        <v>0</v>
+      </c>
+      <c r="DN131">
+        <f t="shared" ref="DN131:DN175" si="5" xml:space="preserve"> IF(OR(AND(DM131=0,DL131&lt;4),AND(DM131=1,DL131&lt;4.5),AND(DM131=2,DL131&lt;5),DM131&gt;=3),1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>102</v>
       </c>
@@ -46859,8 +47881,16 @@
       <c r="DL132" s="2">
         <v>6.3</v>
       </c>
+      <c r="DM132">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN132">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>103</v>
       </c>
@@ -47206,8 +48236,16 @@
       <c r="DL133" s="2">
         <v>5.2</v>
       </c>
+      <c r="DM133">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="DN133">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>102</v>
       </c>
@@ -47553,8 +48591,16 @@
       <c r="DL134" s="2">
         <v>5.8</v>
       </c>
+      <c r="DM134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN134">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>103</v>
       </c>
@@ -47900,8 +48946,16 @@
       <c r="DL135" s="2">
         <v>6.1</v>
       </c>
+      <c r="DM135">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN135">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>102</v>
       </c>
@@ -48247,8 +49301,16 @@
       <c r="DL136" s="2">
         <v>6.2</v>
       </c>
+      <c r="DM136">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN136">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>103</v>
       </c>
@@ -48594,8 +49656,16 @@
       <c r="DL137" s="2">
         <v>5.4</v>
       </c>
+      <c r="DM137">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="DN137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>102</v>
       </c>
@@ -48941,8 +50011,16 @@
       <c r="DL138" s="2">
         <v>6.1</v>
       </c>
+      <c r="DM138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN138">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>102</v>
       </c>
@@ -49288,8 +50366,16 @@
       <c r="DL139" s="2">
         <v>5.5</v>
       </c>
+      <c r="DM139">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN139">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>103</v>
       </c>
@@ -49635,8 +50721,16 @@
       <c r="DL140" s="2">
         <v>4.9000000000000004</v>
       </c>
+      <c r="DM140">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="DN140">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="141" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>103</v>
       </c>
@@ -49982,8 +51076,16 @@
       <c r="DL141" s="2">
         <v>5.7</v>
       </c>
+      <c r="DM141">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN141">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>103</v>
       </c>
@@ -50329,8 +51431,16 @@
       <c r="DL142" s="2">
         <v>6.1</v>
       </c>
+      <c r="DM142">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN142">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>103</v>
       </c>
@@ -50676,8 +51786,16 @@
       <c r="DL143" s="2">
         <v>5.8</v>
       </c>
+      <c r="DM143">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>102</v>
       </c>
@@ -51023,8 +52141,16 @@
       <c r="DL144" s="2">
         <v>5.4</v>
       </c>
+      <c r="DM144">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="DN144">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>102</v>
       </c>
@@ -51370,8 +52496,16 @@
       <c r="DL145" s="2">
         <v>5.7</v>
       </c>
+      <c r="DM145">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN145">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>103</v>
       </c>
@@ -51717,8 +52851,16 @@
       <c r="DL146" s="2">
         <v>6.6</v>
       </c>
+      <c r="DM146">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN146">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="147" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>103</v>
       </c>
@@ -52064,8 +53206,16 @@
       <c r="DL147" s="2">
         <v>6.8</v>
       </c>
+      <c r="DM147">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>102</v>
       </c>
@@ -52411,8 +53561,16 @@
       <c r="DL148" s="2">
         <v>7</v>
       </c>
+      <c r="DM148">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN148">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="149" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>102</v>
       </c>
@@ -52758,8 +53916,16 @@
       <c r="DL149" s="2">
         <v>5.4</v>
       </c>
+      <c r="DM149">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN149">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="150" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>103</v>
       </c>
@@ -53105,8 +54271,16 @@
       <c r="DL150" s="2">
         <v>5.8</v>
       </c>
+      <c r="DM150">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN150">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="151" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>103</v>
       </c>
@@ -53452,8 +54626,16 @@
       <c r="DL151" s="2">
         <v>4.9000000000000004</v>
       </c>
+      <c r="DM151">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN151">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>103</v>
       </c>
@@ -53799,8 +54981,16 @@
       <c r="DL152" s="2">
         <v>5.4</v>
       </c>
+      <c r="DM152">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN152">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="153" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>102</v>
       </c>
@@ -54146,8 +55336,16 @@
       <c r="DL153" s="2">
         <v>5.7</v>
       </c>
+      <c r="DM153">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN153">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="154" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>102</v>
       </c>
@@ -54493,8 +55691,16 @@
       <c r="DL154" s="2">
         <v>6.1</v>
       </c>
+      <c r="DM154">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>103</v>
       </c>
@@ -54840,8 +56046,16 @@
       <c r="DL155" s="2">
         <v>5.5</v>
       </c>
+      <c r="DM155">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="156" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>103</v>
       </c>
@@ -55187,8 +56401,16 @@
       <c r="DL156" s="2">
         <v>5.6</v>
       </c>
+      <c r="DM156">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN156">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="157" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>103</v>
       </c>
@@ -55534,8 +56756,16 @@
       <c r="DL157" s="2">
         <v>6.4</v>
       </c>
+      <c r="DM157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="158" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>105</v>
       </c>
@@ -55881,8 +57111,16 @@
       <c r="DL158" s="2">
         <v>5.0999999999999996</v>
       </c>
+      <c r="DM158">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="DN158">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="159" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>102</v>
       </c>
@@ -56228,8 +57466,16 @@
       <c r="DL159" s="2">
         <v>5.9</v>
       </c>
+      <c r="DM159">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN159">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>103</v>
       </c>
@@ -56575,8 +57821,16 @@
       <c r="DL160" s="2">
         <v>6.3</v>
       </c>
+      <c r="DM160">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN160">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>102</v>
       </c>
@@ -56922,8 +58176,16 @@
       <c r="DL161" s="2">
         <v>5.5</v>
       </c>
+      <c r="DM161">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="162" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>103</v>
       </c>
@@ -57269,8 +58531,16 @@
       <c r="DL162" s="2">
         <v>6.8</v>
       </c>
+      <c r="DM162">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="163" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>103</v>
       </c>
@@ -57616,8 +58886,16 @@
       <c r="DL163" s="2">
         <v>6.6</v>
       </c>
+      <c r="DM163">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN163">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="164" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>103</v>
       </c>
@@ -57963,8 +59241,16 @@
       <c r="DL164" s="2">
         <v>6.3</v>
       </c>
+      <c r="DM164">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN164">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="165" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>102</v>
       </c>
@@ -58310,8 +59596,16 @@
       <c r="DL165" s="2">
         <v>5.2</v>
       </c>
+      <c r="DM165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN165">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="166" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>102</v>
       </c>
@@ -58657,8 +59951,16 @@
       <c r="DL166" s="2">
         <v>5.2</v>
       </c>
+      <c r="DM166">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN166">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="167" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>103</v>
       </c>
@@ -59004,8 +60306,16 @@
       <c r="DL167" s="2">
         <v>6</v>
       </c>
+      <c r="DM167">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN167">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>102</v>
       </c>
@@ -59351,8 +60661,16 @@
       <c r="DL168" s="2">
         <v>5.8</v>
       </c>
+      <c r="DM168">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN168">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="169" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>102</v>
       </c>
@@ -59698,8 +61016,16 @@
       <c r="DL169" s="2">
         <v>5.8</v>
       </c>
+      <c r="DM169">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN169">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="170" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>102</v>
       </c>
@@ -60045,8 +61371,16 @@
       <c r="DL170" s="2">
         <v>6.5</v>
       </c>
+      <c r="DM170">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN170">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>103</v>
       </c>
@@ -60392,8 +61726,16 @@
       <c r="DL171" s="2">
         <v>5.7</v>
       </c>
+      <c r="DM171">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN171">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="172" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>102</v>
       </c>
@@ -60739,8 +62081,16 @@
       <c r="DL172" s="2">
         <v>6.1</v>
       </c>
+      <c r="DM172">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN172">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="173" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>102</v>
       </c>
@@ -61086,8 +62436,16 @@
       <c r="DL173" s="2">
         <v>6.3</v>
       </c>
+      <c r="DM173">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN173">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="174" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>103</v>
       </c>
@@ -61433,8 +62791,16 @@
       <c r="DL174" s="2">
         <v>6.2</v>
       </c>
+      <c r="DM174">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN174">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="175" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>103</v>
       </c>
@@ -61779,6 +63145,14 @@
       </c>
       <c r="DL175" s="2">
         <v>5.6</v>
+      </c>
+      <c r="DM175">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="DN175">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
